--- a/DSA Problems with Links.xlsx
+++ b/DSA Problems with Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Structures And Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8769B4B-4B69-4634-8DE9-088BF8B535B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26319D-84A2-48E0-97B3-3588B5423D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,16 +24,16 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{07652E37-A5CD-461A-B257-DB07D03B64C5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{62A34CE6-EC82-4829-B253-07E3C059F321}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{49A1BCA8-E8DE-44D5-8217-3837FF243736}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{639A318C-6F16-4870-B434-4EC51F321CFB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{49A1BCA8-E8DE-44D5-8217-3837FF243736}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{62A34CE6-EC82-4829-B253-07E3C059F321}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{07652E37-A5CD-461A-B257-DB07D03B64C5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="703">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>use 2 pointer approach</t>
-  </si>
-  <si>
-    <t>Given Sum Pair</t>
   </si>
   <si>
     <t>Infosys + Amazon + Flipkart Interview Qs</t>
@@ -2152,6 +2149,15 @@
   </si>
   <si>
     <t>3Sum [Refer Striver Video]</t>
+  </si>
+  <si>
+    <t>Find Pair Sum in Rotated and Sorted array</t>
+  </si>
+  <si>
+    <t>Youtube Video</t>
+  </si>
+  <si>
+    <t>Striver YT Video</t>
   </si>
 </sst>
 </file>
@@ -2366,20 +2372,19 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Open Sans"/>
       <family val="2"/>
@@ -2574,14 +2579,14 @@
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2818,8 +2823,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3317,7 +3322,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3448,7 +3453,7 @@
       <c r="A20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -3482,7 +3487,7 @@
       <c r="A21" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3517,7 +3522,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>34</v>
@@ -3552,8 +3557,8 @@
       <c r="A23" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>696</v>
+      <c r="B23" s="45" t="s">
+        <v>695</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>20</v>
@@ -3620,8 +3625,8 @@
       <c r="A25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>697</v>
+      <c r="B25" s="45" t="s">
+        <v>696</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>38</v>
@@ -3654,14 +3659,14 @@
       <c r="A26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>698</v>
+      <c r="B26" s="46" t="s">
+        <v>697</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>699</v>
+      <c r="D26" s="47" t="s">
+        <v>698</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3691,7 +3696,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>38</v>
@@ -3721,7 +3726,7 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -3733,7 +3738,9 @@
       <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="48" t="s">
+        <v>701</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3757,17 +3764,19 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="42" t="s">
+        <v>702</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3791,11 +3800,11 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>45</v>
+      <c r="B30" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>16</v>
@@ -3825,14 +3834,14 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3863,10 +3872,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3896,11 +3905,11 @@
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3931,10 +3940,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3965,10 +3974,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3999,10 +4008,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4033,10 +4042,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4120,13 +4129,13 @@
     </row>
     <row r="40" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4154,13 +4163,13 @@
     </row>
     <row r="41" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4188,16 +4197,16 @@
     </row>
     <row r="42" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4224,13 +4233,13 @@
     </row>
     <row r="43" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4258,13 +4267,13 @@
     </row>
     <row r="44" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -4292,13 +4301,13 @@
     </row>
     <row r="45" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4326,13 +4335,13 @@
     </row>
     <row r="46" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4360,13 +4369,13 @@
     </row>
     <row r="47" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4394,13 +4403,13 @@
     </row>
     <row r="48" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4428,13 +4437,13 @@
     </row>
     <row r="49" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4462,13 +4471,13 @@
     </row>
     <row r="50" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4496,13 +4505,13 @@
     </row>
     <row r="51" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4530,13 +4539,13 @@
     </row>
     <row r="52" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4564,13 +4573,13 @@
     </row>
     <row r="53" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4598,13 +4607,13 @@
     </row>
     <row r="54" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4632,13 +4641,13 @@
     </row>
     <row r="55" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4666,13 +4675,13 @@
     </row>
     <row r="56" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4700,13 +4709,13 @@
     </row>
     <row r="57" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4734,13 +4743,13 @@
     </row>
     <row r="58" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4768,13 +4777,13 @@
     </row>
     <row r="59" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4802,13 +4811,13 @@
     </row>
     <row r="60" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4836,16 +4845,16 @@
     </row>
     <row r="61" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -4928,13 +4937,13 @@
     </row>
     <row r="64" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4962,13 +4971,13 @@
     </row>
     <row r="65" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4996,13 +5005,13 @@
     </row>
     <row r="66" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5030,13 +5039,13 @@
     </row>
     <row r="67" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5064,13 +5073,13 @@
     </row>
     <row r="68" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5098,16 +5107,16 @@
     </row>
     <row r="69" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="D69" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -5134,13 +5143,13 @@
     </row>
     <row r="70" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5168,13 +5177,13 @@
     </row>
     <row r="71" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5202,13 +5211,13 @@
     </row>
     <row r="72" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5236,13 +5245,13 @@
     </row>
     <row r="73" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5326,13 +5335,13 @@
     </row>
     <row r="76" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="C76" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5360,13 +5369,13 @@
     </row>
     <row r="77" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5394,13 +5403,13 @@
     </row>
     <row r="78" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5428,13 +5437,13 @@
     </row>
     <row r="79" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5462,13 +5471,13 @@
     </row>
     <row r="80" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B80" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5496,13 +5505,13 @@
     </row>
     <row r="81" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5530,13 +5539,13 @@
     </row>
     <row r="82" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5564,13 +5573,13 @@
     </row>
     <row r="83" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5598,13 +5607,13 @@
     </row>
     <row r="84" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -5631,13 +5640,13 @@
     </row>
     <row r="85" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -5664,13 +5673,13 @@
     </row>
     <row r="86" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5698,13 +5707,13 @@
     </row>
     <row r="87" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5732,13 +5741,13 @@
     </row>
     <row r="88" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5766,13 +5775,13 @@
     </row>
     <row r="89" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5800,13 +5809,13 @@
     </row>
     <row r="90" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5834,13 +5843,13 @@
     </row>
     <row r="91" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5868,13 +5877,13 @@
     </row>
     <row r="92" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5902,13 +5911,13 @@
     </row>
     <row r="93" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B93" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5936,13 +5945,13 @@
     </row>
     <row r="94" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B94" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5970,13 +5979,13 @@
     </row>
     <row r="95" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6004,13 +6013,13 @@
     </row>
     <row r="96" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6038,13 +6047,13 @@
     </row>
     <row r="97" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6072,13 +6081,13 @@
     </row>
     <row r="98" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6162,13 +6171,13 @@
     </row>
     <row r="101" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="C101" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6196,13 +6205,13 @@
     </row>
     <row r="102" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6230,13 +6239,13 @@
     </row>
     <row r="103" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6264,13 +6273,13 @@
     </row>
     <row r="104" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6298,13 +6307,13 @@
     </row>
     <row r="105" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6332,13 +6341,13 @@
     </row>
     <row r="106" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B106" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6366,13 +6375,13 @@
     </row>
     <row r="107" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B107" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6400,13 +6409,13 @@
     </row>
     <row r="108" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6434,13 +6443,13 @@
     </row>
     <row r="109" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B109" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -6467,13 +6476,13 @@
     </row>
     <row r="110" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -6500,13 +6509,13 @@
     </row>
     <row r="111" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B111" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -6533,10 +6542,10 @@
     </row>
     <row r="112" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112" s="13"/>
       <c r="E112" s="2"/>
@@ -6564,13 +6573,13 @@
     </row>
     <row r="113" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B113" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -6597,13 +6606,13 @@
     </row>
     <row r="114" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -6630,13 +6639,13 @@
     </row>
     <row r="115" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6664,13 +6673,13 @@
     </row>
     <row r="116" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6698,13 +6707,13 @@
     </row>
     <row r="117" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B117" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6732,13 +6741,13 @@
     </row>
     <row r="118" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6766,13 +6775,13 @@
     </row>
     <row r="119" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B119" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -6798,13 +6807,13 @@
     </row>
     <row r="120" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -6830,13 +6839,13 @@
     </row>
     <row r="121" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B121" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -6914,13 +6923,13 @@
     </row>
     <row r="124" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="C124" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="D124" s="13"/>
       <c r="F124" s="2"/>
@@ -6947,13 +6956,13 @@
     </row>
     <row r="125" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B125" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="D125" s="13"/>
       <c r="F125" s="2"/>
@@ -6980,13 +6989,13 @@
     </row>
     <row r="126" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B126" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="D126" s="13"/>
       <c r="F126" s="2"/>
@@ -7013,13 +7022,13 @@
     </row>
     <row r="127" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="D127" s="13"/>
       <c r="F127" s="2"/>
@@ -7046,13 +7055,13 @@
     </row>
     <row r="128" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B128" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>210</v>
       </c>
       <c r="D128" s="13"/>
       <c r="F128" s="2"/>
@@ -7079,13 +7088,13 @@
     </row>
     <row r="129" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B129" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="D129" s="13"/>
       <c r="F129" s="2"/>
@@ -7112,13 +7121,13 @@
     </row>
     <row r="130" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D130" s="13"/>
       <c r="F130" s="2"/>
@@ -7145,13 +7154,13 @@
     </row>
     <row r="131" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B131" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="D131" s="13"/>
       <c r="F131" s="2"/>
@@ -7178,13 +7187,13 @@
     </row>
     <row r="132" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B132" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="D132" s="13"/>
       <c r="F132" s="2"/>
@@ -7211,13 +7220,13 @@
     </row>
     <row r="133" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D133" s="13"/>
       <c r="F133" s="2"/>
@@ -7244,13 +7253,13 @@
     </row>
     <row r="134" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A134" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D134" s="13"/>
       <c r="F134" s="2"/>
@@ -7277,13 +7286,13 @@
     </row>
     <row r="135" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A135" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B135" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7311,13 +7320,13 @@
     </row>
     <row r="136" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A136" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B136" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -7345,13 +7354,13 @@
     </row>
     <row r="137" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A137" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B137" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="29"/>
@@ -7379,13 +7388,13 @@
     </row>
     <row r="138" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A138" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="29"/>
@@ -7413,13 +7422,13 @@
     </row>
     <row r="139" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -7447,13 +7456,13 @@
     </row>
     <row r="140" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B140" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C140" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -7481,13 +7490,13 @@
     </row>
     <row r="141" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B141" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C141" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -7515,13 +7524,13 @@
     </row>
     <row r="142" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B142" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C142" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="29"/>
@@ -7549,13 +7558,13 @@
     </row>
     <row r="143" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B143" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="29"/>
@@ -7583,16 +7592,16 @@
     </row>
     <row r="144" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A144" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B144" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="D144" s="30" t="s">
         <v>237</v>
-      </c>
-      <c r="D144" s="30" t="s">
-        <v>238</v>
       </c>
       <c r="E144" s="29"/>
       <c r="F144" s="2"/>
@@ -7619,16 +7628,16 @@
     </row>
     <row r="145" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C145" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="D145" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -7655,13 +7664,13 @@
     </row>
     <row r="146" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C146" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="29"/>
@@ -7689,13 +7698,13 @@
     </row>
     <row r="147" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A147" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B147" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C147" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>244</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="29"/>
@@ -7723,13 +7732,13 @@
     </row>
     <row r="148" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B148" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C148" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="29"/>
@@ -7757,13 +7766,13 @@
     </row>
     <row r="149" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A149" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B149" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C149" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="29"/>
@@ -7820,7 +7829,7 @@
     <row r="151" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A151" s="18"/>
       <c r="B151" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C151" s="17"/>
       <c r="D151" s="2"/>
@@ -7849,13 +7858,13 @@
     </row>
     <row r="152" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B152" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="C152" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -7883,13 +7892,13 @@
     </row>
     <row r="153" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B153" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C153" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="2"/>
@@ -7917,13 +7926,13 @@
     </row>
     <row r="154" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B154" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>256</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="2"/>
@@ -7951,13 +7960,13 @@
     </row>
     <row r="155" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B155" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C155" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="D155" s="29"/>
       <c r="E155" s="2"/>
@@ -7985,13 +7994,13 @@
     </row>
     <row r="156" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B156" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>260</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="2"/>
@@ -8019,13 +8028,13 @@
     </row>
     <row r="157" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C157" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="D157" s="29"/>
       <c r="E157" s="2"/>
@@ -8053,13 +8062,13 @@
     </row>
     <row r="158" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A158" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B158" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C158" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>264</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="2"/>
@@ -8087,13 +8096,13 @@
     </row>
     <row r="159" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A159" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B159" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C159" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="D159" s="29"/>
       <c r="E159" s="2"/>
@@ -8121,13 +8130,13 @@
     </row>
     <row r="160" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A160" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C160" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="2"/>
@@ -8155,13 +8164,13 @@
     </row>
     <row r="161" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A161" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>270</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -8187,13 +8196,13 @@
     </row>
     <row r="162" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A162" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B162" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C162" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -8219,13 +8228,13 @@
     </row>
     <row r="163" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A163" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B163" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C163" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -8251,13 +8260,13 @@
     </row>
     <row r="164" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A164" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -8283,13 +8292,13 @@
     </row>
     <row r="165" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A165" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B165" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C165" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -8315,13 +8324,13 @@
     </row>
     <row r="166" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A166" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B166" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C166" s="13" t="s">
         <v>278</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -8347,13 +8356,13 @@
     </row>
     <row r="167" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A167" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C167" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -8379,13 +8388,13 @@
     </row>
     <row r="168" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A168" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -8411,13 +8420,13 @@
     </row>
     <row r="169" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A169" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B169" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C169" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>284</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -8443,13 +8452,13 @@
     </row>
     <row r="170" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A170" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -8475,13 +8484,13 @@
     </row>
     <row r="171" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A171" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B171" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C171" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -8507,13 +8516,13 @@
     </row>
     <row r="172" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A172" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B172" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C172" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -8539,13 +8548,13 @@
     </row>
     <row r="173" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A173" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -8571,13 +8580,13 @@
     </row>
     <row r="174" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A174" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -8603,13 +8612,13 @@
     </row>
     <row r="175" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A175" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -8635,13 +8644,13 @@
     </row>
     <row r="176" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A176" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B176" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C176" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>294</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -8667,13 +8676,13 @@
     </row>
     <row r="177" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A177" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B177" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C177" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="D177" s="31"/>
       <c r="E177" s="2"/>
@@ -8701,13 +8710,13 @@
     </row>
     <row r="178" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A178" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D178" s="31"/>
       <c r="E178" s="2"/>
@@ -8789,13 +8798,13 @@
     </row>
     <row r="181" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B181" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="C181" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="C181" s="32" t="s">
-        <v>300</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8823,13 +8832,13 @@
     </row>
     <row r="182" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B182" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C182" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8857,13 +8866,13 @@
     </row>
     <row r="183" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8891,13 +8900,13 @@
     </row>
     <row r="184" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -8925,13 +8934,13 @@
     </row>
     <row r="185" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B185" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C185" s="32" t="s">
         <v>305</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>306</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -8959,10 +8968,10 @@
     </row>
     <row r="186" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C186" s="32"/>
       <c r="F186" s="2"/>
@@ -8989,13 +8998,13 @@
     </row>
     <row r="187" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A187" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C187" s="32" t="s">
         <v>308</v>
-      </c>
-      <c r="C187" s="32" t="s">
-        <v>309</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -9021,13 +9030,13 @@
     </row>
     <row r="188" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A188" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C188" s="32" t="s">
         <v>310</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>311</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -9053,10 +9062,10 @@
     </row>
     <row r="189" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A189" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C189" s="32"/>
       <c r="F189" s="2"/>
@@ -9083,13 +9092,13 @@
     </row>
     <row r="190" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A190" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -9115,13 +9124,13 @@
     </row>
     <row r="191" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A191" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B191" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C191" s="32" t="s">
         <v>314</v>
-      </c>
-      <c r="C191" s="32" t="s">
-        <v>315</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -9147,13 +9156,13 @@
     </row>
     <row r="192" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B192" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C192" s="32" t="s">
         <v>316</v>
-      </c>
-      <c r="C192" s="32" t="s">
-        <v>317</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -9179,13 +9188,13 @@
     </row>
     <row r="193" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B193" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C193" s="32" t="s">
         <v>318</v>
-      </c>
-      <c r="C193" s="32" t="s">
-        <v>319</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -9211,13 +9220,13 @@
     </row>
     <row r="194" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A194" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -9243,13 +9252,13 @@
     </row>
     <row r="195" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A195" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -9275,13 +9284,13 @@
     </row>
     <row r="196" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A196" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B196" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C196" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -9307,10 +9316,10 @@
     </row>
     <row r="197" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A197" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C197" s="13"/>
       <c r="F197" s="2"/>
@@ -9337,13 +9346,13 @@
     </row>
     <row r="198" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A198" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C198" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>326</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -9369,13 +9378,13 @@
     </row>
     <row r="199" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A199" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -9401,10 +9410,10 @@
     </row>
     <row r="200" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A200" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C200" s="13"/>
       <c r="F200" s="2"/>
@@ -9431,10 +9440,10 @@
     </row>
     <row r="201" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A201" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C201" s="13"/>
       <c r="F201" s="2"/>
@@ -9461,13 +9470,13 @@
     </row>
     <row r="202" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A202" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -9549,13 +9558,13 @@
     </row>
     <row r="205" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B205" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="C205" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>333</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9583,13 +9592,13 @@
     </row>
     <row r="206" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B206" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C206" s="13" t="s">
         <v>334</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>335</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9617,13 +9626,13 @@
     </row>
     <row r="207" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B207" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C207" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9651,13 +9660,13 @@
     </row>
     <row r="208" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B208" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C208" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9685,13 +9694,13 @@
     </row>
     <row r="209" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B209" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C209" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>341</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9719,13 +9728,13 @@
     </row>
     <row r="210" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B210" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C210" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9753,13 +9762,13 @@
     </row>
     <row r="211" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="31"/>
@@ -9786,13 +9795,13 @@
     </row>
     <row r="212" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B212" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C212" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="31"/>
@@ -9819,13 +9828,13 @@
     </row>
     <row r="213" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B213" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C213" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="31"/>
@@ -9852,13 +9861,13 @@
     </row>
     <row r="214" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="31"/>
@@ -9885,13 +9894,13 @@
     </row>
     <row r="215" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B215" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C215" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>351</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="31"/>
@@ -9918,13 +9927,13 @@
     </row>
     <row r="216" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B216" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C216" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="31"/>
@@ -9951,13 +9960,13 @@
     </row>
     <row r="217" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A217" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="31"/>
@@ -9984,13 +9993,13 @@
     </row>
     <row r="218" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="31"/>
@@ -10017,13 +10026,13 @@
     </row>
     <row r="219" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A219" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B219" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C219" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>357</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -10051,13 +10060,13 @@
     </row>
     <row r="220" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A220" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10085,13 +10094,13 @@
     </row>
     <row r="221" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A221" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B221" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C221" s="13" t="s">
         <v>359</v>
-      </c>
-      <c r="C221" s="13" t="s">
-        <v>360</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -10119,13 +10128,13 @@
     </row>
     <row r="222" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A222" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B222" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C222" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10153,13 +10162,13 @@
     </row>
     <row r="223" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A223" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B223" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C223" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>364</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -10187,13 +10196,13 @@
     </row>
     <row r="224" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A224" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -10221,13 +10230,13 @@
     </row>
     <row r="225" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A225" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B225" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C225" s="13" t="s">
         <v>366</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -10255,13 +10264,13 @@
     </row>
     <row r="226" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A226" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B226" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C226" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -10289,13 +10298,13 @@
     </row>
     <row r="227" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A227" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B227" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C227" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>371</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -10323,13 +10332,13 @@
     </row>
     <row r="228" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A228" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -10357,13 +10366,13 @@
     </row>
     <row r="229" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A229" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B229" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C229" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10391,13 +10400,13 @@
     </row>
     <row r="230" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A230" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B230" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C230" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>376</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -10425,13 +10434,13 @@
     </row>
     <row r="231" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A231" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B231" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C231" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>378</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -10459,13 +10468,13 @@
     </row>
     <row r="232" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A232" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B232" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C232" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10493,13 +10502,13 @@
     </row>
     <row r="233" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A233" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B233" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C233" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>382</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10527,13 +10536,13 @@
     </row>
     <row r="234" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A234" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B234" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C234" s="13" t="s">
         <v>383</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>384</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -10561,13 +10570,13 @@
     </row>
     <row r="235" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A235" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B235" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C235" s="13" t="s">
         <v>385</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>386</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -10595,13 +10604,13 @@
     </row>
     <row r="236" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A236" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B236" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C236" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -10629,13 +10638,13 @@
     </row>
     <row r="237" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A237" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B237" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C237" s="13" t="s">
         <v>389</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -10719,13 +10728,13 @@
     </row>
     <row r="240" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A240" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B240" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="C240" s="13" t="s">
         <v>392</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>393</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10753,13 +10762,13 @@
     </row>
     <row r="241" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B241" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C241" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10787,13 +10796,13 @@
     </row>
     <row r="242" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="31"/>
@@ -10821,13 +10830,13 @@
     </row>
     <row r="243" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A243" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B243" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C243" s="13" t="s">
         <v>397</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>398</v>
       </c>
       <c r="D243" s="13"/>
       <c r="F243" s="31"/>
@@ -10854,13 +10863,13 @@
     </row>
     <row r="244" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A244" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D244" s="13"/>
       <c r="F244" s="2"/>
@@ -10887,13 +10896,13 @@
     </row>
     <row r="245" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B245" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C245" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>401</v>
       </c>
       <c r="D245" s="13"/>
       <c r="F245" s="2"/>
@@ -10920,13 +10929,13 @@
     </row>
     <row r="246" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A246" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B246" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C246" s="13" t="s">
         <v>402</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>403</v>
       </c>
       <c r="D246" s="13"/>
       <c r="F246" s="2"/>
@@ -10953,13 +10962,13 @@
     </row>
     <row r="247" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A247" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B247" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C247" s="13" t="s">
         <v>404</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>405</v>
       </c>
       <c r="D247" s="13"/>
       <c r="F247" s="2"/>
@@ -10986,13 +10995,13 @@
     </row>
     <row r="248" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A248" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B248" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C248" s="13" t="s">
         <v>406</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>407</v>
       </c>
       <c r="D248" s="13"/>
       <c r="F248" s="2"/>
@@ -11019,13 +11028,13 @@
     </row>
     <row r="249" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A249" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B249" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C249" s="13" t="s">
         <v>408</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>409</v>
       </c>
       <c r="D249" s="13"/>
       <c r="F249" s="2"/>
@@ -11052,13 +11061,13 @@
     </row>
     <row r="250" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A250" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D250" s="13"/>
       <c r="F250" s="2"/>
@@ -11085,13 +11094,13 @@
     </row>
     <row r="251" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A251" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B251" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C251" s="13" t="s">
         <v>411</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>412</v>
       </c>
       <c r="D251" s="13"/>
       <c r="F251" s="2"/>
@@ -11118,13 +11127,13 @@
     </row>
     <row r="252" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A252" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B252" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C252" s="13" t="s">
         <v>413</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>414</v>
       </c>
       <c r="D252" s="13"/>
       <c r="F252" s="2"/>
@@ -11151,13 +11160,13 @@
     </row>
     <row r="253" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A253" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B253" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C253" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>416</v>
       </c>
       <c r="D253" s="13"/>
       <c r="F253" s="2"/>
@@ -11184,13 +11193,13 @@
     </row>
     <row r="254" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A254" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D254" s="13"/>
       <c r="F254" s="2"/>
@@ -11217,13 +11226,13 @@
     </row>
     <row r="255" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A255" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D255" s="13"/>
       <c r="F255" s="2"/>
@@ -11250,13 +11259,13 @@
     </row>
     <row r="256" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A256" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D256" s="13"/>
       <c r="F256" s="2"/>
@@ -11283,13 +11292,13 @@
     </row>
     <row r="257" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A257" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D257" s="13"/>
       <c r="F257" s="2"/>
@@ -11316,13 +11325,13 @@
     </row>
     <row r="258" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A258" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B258" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C258" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>422</v>
       </c>
       <c r="D258" s="13"/>
       <c r="F258" s="2"/>
@@ -11349,13 +11358,13 @@
     </row>
     <row r="259" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A259" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -11383,16 +11392,16 @@
     </row>
     <row r="260" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A260" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B260" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C260" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="C260" s="13" t="s">
-        <v>425</v>
-      </c>
       <c r="D260" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -11475,10 +11484,10 @@
     </row>
     <row r="263" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A263" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B263" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="B263" s="14" t="s">
-        <v>427</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="2"/>
@@ -11507,13 +11516,13 @@
     </row>
     <row r="264" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A264" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D264" s="29"/>
       <c r="E264" s="2"/>
@@ -11541,13 +11550,13 @@
     </row>
     <row r="265" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A265" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D265" s="29"/>
       <c r="E265" s="2"/>
@@ -11575,10 +11584,10 @@
     </row>
     <row r="266" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A266" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>33</v>
@@ -11609,13 +11618,13 @@
     </row>
     <row r="267" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A267" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B267" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C267" s="13" t="s">
         <v>431</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>432</v>
       </c>
       <c r="D267" s="29"/>
       <c r="E267" s="2"/>
@@ -11643,10 +11652,10 @@
     </row>
     <row r="268" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A268" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C268" s="13" t="s">
         <v>16</v>
@@ -11677,13 +11686,13 @@
     </row>
     <row r="269" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A269" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B269" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C269" s="13" t="s">
         <v>434</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>435</v>
       </c>
       <c r="D269" s="29"/>
       <c r="E269" s="2"/>
@@ -11711,10 +11720,10 @@
     </row>
     <row r="270" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A270" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>16</v>
@@ -11745,13 +11754,13 @@
     </row>
     <row r="271" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A271" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B271" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C271" s="13" t="s">
         <v>437</v>
-      </c>
-      <c r="C271" s="13" t="s">
-        <v>438</v>
       </c>
       <c r="D271" s="29"/>
       <c r="E271" s="2"/>
@@ -11779,13 +11788,13 @@
     </row>
     <row r="272" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A272" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B272" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C272" s="27" t="s">
         <v>439</v>
-      </c>
-      <c r="C272" s="27" t="s">
-        <v>440</v>
       </c>
       <c r="D272" s="29"/>
       <c r="E272" s="2"/>
@@ -11813,13 +11822,13 @@
     </row>
     <row r="273" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A273" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B273" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C273" s="13" t="s">
         <v>441</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>442</v>
       </c>
       <c r="D273" s="29"/>
       <c r="E273" s="2"/>
@@ -11847,13 +11856,13 @@
     </row>
     <row r="274" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A274" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B274" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C274" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>444</v>
       </c>
       <c r="D274" s="29"/>
       <c r="E274" s="2"/>
@@ -11881,13 +11890,13 @@
     </row>
     <row r="275" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A275" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B275" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C275" s="13" t="s">
         <v>445</v>
-      </c>
-      <c r="C275" s="13" t="s">
-        <v>446</v>
       </c>
       <c r="D275" s="29"/>
       <c r="E275" s="2"/>
@@ -11915,13 +11924,13 @@
     </row>
     <row r="276" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A276" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B276" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C276" s="13" t="s">
         <v>447</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>448</v>
       </c>
       <c r="D276" s="29"/>
       <c r="E276" s="2"/>
@@ -11949,13 +11958,13 @@
     </row>
     <row r="277" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A277" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D277" s="29"/>
       <c r="E277" s="2"/>
@@ -11983,13 +11992,13 @@
     </row>
     <row r="278" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A278" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B278" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C278" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="C278" s="13" t="s">
-        <v>451</v>
       </c>
       <c r="D278" s="29"/>
       <c r="E278" s="2"/>
@@ -12017,13 +12026,13 @@
     </row>
     <row r="279" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A279" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="2"/>
@@ -12051,13 +12060,13 @@
     </row>
     <row r="280" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A280" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B280" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C280" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>454</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="2"/>
@@ -12085,13 +12094,13 @@
     </row>
     <row r="281" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A281" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B281" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C281" s="13" t="s">
         <v>455</v>
-      </c>
-      <c r="C281" s="13" t="s">
-        <v>456</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -12118,13 +12127,13 @@
     </row>
     <row r="282" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A282" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B282" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C282" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
@@ -12151,13 +12160,13 @@
     </row>
     <row r="283" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A283" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B283" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C283" s="13" t="s">
         <v>459</v>
-      </c>
-      <c r="C283" s="13" t="s">
-        <v>460</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -12184,13 +12193,13 @@
     </row>
     <row r="284" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A284" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B284" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C284" s="13" t="s">
         <v>461</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>462</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -12217,13 +12226,13 @@
     </row>
     <row r="285" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A285" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -12250,13 +12259,13 @@
     </row>
     <row r="286" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A286" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B286" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C286" s="13" t="s">
         <v>464</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>465</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -12283,13 +12292,13 @@
     </row>
     <row r="287" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A287" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
@@ -12316,13 +12325,13 @@
     </row>
     <row r="288" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A288" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
@@ -12349,13 +12358,13 @@
     </row>
     <row r="289" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A289" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B289" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C289" s="13" t="s">
         <v>468</v>
-      </c>
-      <c r="C289" s="13" t="s">
-        <v>469</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
@@ -12382,13 +12391,13 @@
     </row>
     <row r="290" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A290" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -12470,13 +12479,13 @@
     </row>
     <row r="293" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B293" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B293" s="14" t="s">
+      <c r="C293" s="13" t="s">
         <v>472</v>
-      </c>
-      <c r="C293" s="13" t="s">
-        <v>473</v>
       </c>
       <c r="D293" s="31"/>
       <c r="E293" s="2"/>
@@ -12504,13 +12513,13 @@
     </row>
     <row r="294" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B294" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="C294" s="13" t="s">
         <v>474</v>
-      </c>
-      <c r="C294" s="13" t="s">
-        <v>475</v>
       </c>
       <c r="D294" s="31"/>
       <c r="E294" s="2"/>
@@ -12538,13 +12547,13 @@
     </row>
     <row r="295" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B295" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C295" s="13" t="s">
         <v>476</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>477</v>
       </c>
       <c r="D295" s="31"/>
       <c r="E295" s="2"/>
@@ -12572,13 +12581,13 @@
     </row>
     <row r="296" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D296" s="31"/>
       <c r="E296" s="2"/>
@@ -12606,13 +12615,13 @@
     </row>
     <row r="297" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A297" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B297" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C297" s="13" t="s">
         <v>479</v>
-      </c>
-      <c r="C297" s="13" t="s">
-        <v>480</v>
       </c>
       <c r="D297" s="31"/>
       <c r="E297" s="2"/>
@@ -12640,13 +12649,13 @@
     </row>
     <row r="298" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A298" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D298" s="31"/>
       <c r="E298" s="2"/>
@@ -12674,13 +12683,13 @@
     </row>
     <row r="299" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A299" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B299" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C299" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="C299" s="13" t="s">
-        <v>483</v>
       </c>
       <c r="D299" s="31"/>
       <c r="E299" s="2"/>
@@ -12708,13 +12717,13 @@
     </row>
     <row r="300" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A300" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B300" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C300" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>485</v>
       </c>
       <c r="D300" s="31"/>
       <c r="E300" s="2"/>
@@ -12742,13 +12751,13 @@
     </row>
     <row r="301" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A301" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B301" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C301" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>487</v>
       </c>
       <c r="D301" s="31"/>
       <c r="E301" s="2"/>
@@ -12776,13 +12785,13 @@
     </row>
     <row r="302" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A302" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D302" s="31"/>
       <c r="E302" s="2"/>
@@ -12810,13 +12819,13 @@
     </row>
     <row r="303" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A303" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B303" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C303" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="C303" s="13" t="s">
-        <v>490</v>
       </c>
       <c r="D303" s="31"/>
       <c r="E303" s="2"/>
@@ -12844,13 +12853,13 @@
     </row>
     <row r="304" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A304" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B304" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="C304" s="13" t="s">
         <v>491</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>492</v>
       </c>
       <c r="D304" s="31"/>
       <c r="E304" s="2"/>
@@ -12878,13 +12887,13 @@
     </row>
     <row r="305" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A305" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D305" s="31"/>
       <c r="E305" s="2"/>
@@ -12912,13 +12921,13 @@
     </row>
     <row r="306" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A306" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D306" s="31"/>
       <c r="E306" s="2"/>
@@ -12946,13 +12955,13 @@
     </row>
     <row r="307" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A307" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B307" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C307" s="13" t="s">
         <v>495</v>
-      </c>
-      <c r="C307" s="13" t="s">
-        <v>496</v>
       </c>
       <c r="D307" s="31"/>
       <c r="E307" s="2"/>
@@ -12980,13 +12989,13 @@
     </row>
     <row r="308" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A308" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B308" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C308" s="13" t="s">
         <v>497</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>498</v>
       </c>
       <c r="D308" s="31"/>
       <c r="E308" s="2"/>
@@ -13014,13 +13023,13 @@
     </row>
     <row r="309" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A309" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D309" s="31"/>
       <c r="E309" s="2"/>
@@ -13048,13 +13057,13 @@
     </row>
     <row r="310" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A310" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B310" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D310" s="31"/>
       <c r="E310" s="2"/>
@@ -13082,13 +13091,13 @@
     </row>
     <row r="311" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A311" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B311" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C311" s="13" t="s">
         <v>501</v>
-      </c>
-      <c r="C311" s="13" t="s">
-        <v>502</v>
       </c>
       <c r="D311" s="31"/>
       <c r="E311" s="2"/>
@@ -13116,13 +13125,13 @@
     </row>
     <row r="312" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A312" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D312" s="31"/>
       <c r="E312" s="2"/>
@@ -13150,13 +13159,13 @@
     </row>
     <row r="313" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A313" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B313" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C313" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="D313" s="31"/>
       <c r="E313" s="2"/>
@@ -13184,13 +13193,13 @@
     </row>
     <row r="314" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A314" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B314" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C314" s="13" t="s">
         <v>506</v>
-      </c>
-      <c r="C314" s="13" t="s">
-        <v>507</v>
       </c>
       <c r="D314" s="31"/>
       <c r="E314" s="2"/>
@@ -13218,13 +13227,13 @@
     </row>
     <row r="315" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A315" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B315" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C315" s="13" t="s">
         <v>508</v>
-      </c>
-      <c r="C315" s="13" t="s">
-        <v>509</v>
       </c>
       <c r="D315" s="31"/>
       <c r="E315" s="2"/>
@@ -13252,13 +13261,13 @@
     </row>
     <row r="316" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A316" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B316" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C316" s="13" t="s">
         <v>510</v>
-      </c>
-      <c r="C316" s="13" t="s">
-        <v>511</v>
       </c>
       <c r="D316" s="31"/>
       <c r="E316" s="2"/>
@@ -13286,13 +13295,13 @@
     </row>
     <row r="317" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A317" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D317" s="31"/>
       <c r="E317" s="2"/>
@@ -13320,13 +13329,13 @@
     </row>
     <row r="318" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A318" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B318" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C318" s="13" t="s">
         <v>512</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>513</v>
       </c>
       <c r="D318" s="31"/>
       <c r="E318" s="2"/>
@@ -13354,13 +13363,13 @@
     </row>
     <row r="319" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A319" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B319" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C319" s="13" t="s">
         <v>514</v>
-      </c>
-      <c r="C319" s="13" t="s">
-        <v>515</v>
       </c>
       <c r="D319" s="31"/>
       <c r="E319" s="2"/>
@@ -13388,13 +13397,13 @@
     </row>
     <row r="320" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A320" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D320" s="31"/>
       <c r="E320" s="2"/>
@@ -13422,13 +13431,13 @@
     </row>
     <row r="321" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A321" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B321" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C321" s="13" t="s">
         <v>517</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>518</v>
       </c>
       <c r="D321" s="31"/>
       <c r="E321" s="2"/>
@@ -13456,13 +13465,13 @@
     </row>
     <row r="322" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A322" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D322" s="31"/>
       <c r="E322" s="2"/>
@@ -13490,13 +13499,13 @@
     </row>
     <row r="323" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A323" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D323" s="31"/>
       <c r="E323" s="2"/>
@@ -13524,16 +13533,16 @@
     </row>
     <row r="324" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A324" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B324" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C324" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="C324" s="13" t="s">
-        <v>522</v>
-      </c>
       <c r="D324" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
@@ -13560,13 +13569,13 @@
     </row>
     <row r="325" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A325" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B325" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C325" s="13" t="s">
         <v>523</v>
-      </c>
-      <c r="C325" s="13" t="s">
-        <v>524</v>
       </c>
       <c r="D325" s="31"/>
       <c r="E325" s="2"/>
@@ -13594,16 +13603,16 @@
     </row>
     <row r="326" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A326" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B326" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C326" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C326" s="13" t="s">
-        <v>526</v>
-      </c>
       <c r="D326" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
@@ -13630,13 +13639,13 @@
     </row>
     <row r="327" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A327" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D327" s="31"/>
       <c r="E327" s="2"/>
@@ -13664,13 +13673,13 @@
     </row>
     <row r="328" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A328" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D328" s="31"/>
       <c r="E328" s="2"/>
@@ -13698,13 +13707,13 @@
     </row>
     <row r="329" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A329" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B329" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C329" s="13" t="s">
         <v>529</v>
-      </c>
-      <c r="C329" s="13" t="s">
-        <v>530</v>
       </c>
       <c r="D329" s="31"/>
       <c r="E329" s="2"/>
@@ -13732,13 +13741,13 @@
     </row>
     <row r="330" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A330" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D330" s="31"/>
       <c r="E330" s="2"/>
@@ -13766,13 +13775,13 @@
     </row>
     <row r="331" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A331" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D331" s="31"/>
       <c r="E331" s="2"/>
@@ -13800,13 +13809,13 @@
     </row>
     <row r="332" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A332" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B332" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C332" s="13" t="s">
         <v>533</v>
-      </c>
-      <c r="C332" s="13" t="s">
-        <v>534</v>
       </c>
       <c r="D332" s="31"/>
       <c r="E332" s="2"/>
@@ -13890,13 +13899,13 @@
     </row>
     <row r="335" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A335" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B335" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="B335" s="34" t="s">
+      <c r="C335" s="13" t="s">
         <v>536</v>
-      </c>
-      <c r="C335" s="13" t="s">
-        <v>537</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -13924,13 +13933,13 @@
     </row>
     <row r="336" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A336" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B336" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="C336" s="13" t="s">
         <v>538</v>
-      </c>
-      <c r="C336" s="13" t="s">
-        <v>539</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -13958,13 +13967,13 @@
     </row>
     <row r="337" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A337" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B337" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="C337" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="C337" s="13" t="s">
-        <v>541</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -13992,13 +14001,13 @@
     </row>
     <row r="338" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A338" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B338" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="C338" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="C338" s="13" t="s">
-        <v>543</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -14026,13 +14035,13 @@
     </row>
     <row r="339" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A339" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B339" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="C339" s="13" t="s">
         <v>544</v>
-      </c>
-      <c r="C339" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -14060,13 +14069,13 @@
     </row>
     <row r="340" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A340" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B340" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="C340" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="C340" s="13" t="s">
-        <v>547</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14150,13 +14159,13 @@
     </row>
     <row r="343" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A343" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B343" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="B343" s="14" t="s">
-        <v>549</v>
-      </c>
       <c r="C343" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -14184,13 +14193,13 @@
     </row>
     <row r="344" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A344" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -14218,13 +14227,13 @@
     </row>
     <row r="345" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A345" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -14252,13 +14261,13 @@
     </row>
     <row r="346" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A346" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -14286,13 +14295,13 @@
     </row>
     <row r="347" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A347" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -14320,13 +14329,13 @@
     </row>
     <row r="348" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A348" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -14354,13 +14363,13 @@
     </row>
     <row r="349" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A349" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B349" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C349" s="13" t="s">
         <v>555</v>
-      </c>
-      <c r="C349" s="13" t="s">
-        <v>556</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="31"/>
@@ -14388,13 +14397,13 @@
     </row>
     <row r="350" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A350" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="31"/>
@@ -14422,13 +14431,13 @@
     </row>
     <row r="351" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A351" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="31"/>
@@ -14456,13 +14465,13 @@
     </row>
     <row r="352" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A352" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B352" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C352" s="13" t="s">
         <v>559</v>
-      </c>
-      <c r="C352" s="13" t="s">
-        <v>560</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14490,13 +14499,13 @@
     </row>
     <row r="353" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A353" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B353" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C353" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="C353" s="13" t="s">
-        <v>562</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -14524,13 +14533,13 @@
     </row>
     <row r="354" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A354" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B354" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C354" s="13" t="s">
         <v>563</v>
-      </c>
-      <c r="C354" s="13" t="s">
-        <v>564</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -14558,13 +14567,13 @@
     </row>
     <row r="355" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A355" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B355" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C355" s="13" t="s">
         <v>565</v>
-      </c>
-      <c r="C355" s="13" t="s">
-        <v>566</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -14592,13 +14601,13 @@
     </row>
     <row r="356" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A356" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B356" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C356" s="13" t="s">
         <v>567</v>
-      </c>
-      <c r="C356" s="13" t="s">
-        <v>568</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -14626,13 +14635,13 @@
     </row>
     <row r="357" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A357" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B357" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="C357" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="C357" s="13" t="s">
-        <v>570</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -14660,13 +14669,13 @@
     </row>
     <row r="358" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A358" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B358" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="C358" s="13" t="s">
         <v>571</v>
-      </c>
-      <c r="C358" s="13" t="s">
-        <v>572</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -14694,13 +14703,13 @@
     </row>
     <row r="359" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A359" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B359" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C359" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="C359" s="13" t="s">
-        <v>574</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -14728,13 +14737,13 @@
     </row>
     <row r="360" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A360" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B360" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C360" s="13" t="s">
         <v>575</v>
-      </c>
-      <c r="C360" s="13" t="s">
-        <v>576</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -14762,13 +14771,13 @@
     </row>
     <row r="361" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A361" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B361" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C361" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="C361" s="13" t="s">
-        <v>578</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -14796,13 +14805,13 @@
     </row>
     <row r="362" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A362" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B362" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C362" s="13" t="s">
         <v>579</v>
-      </c>
-      <c r="C362" s="13" t="s">
-        <v>580</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -14830,13 +14839,13 @@
     </row>
     <row r="363" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A363" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -14864,13 +14873,13 @@
     </row>
     <row r="364" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A364" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -14898,13 +14907,13 @@
     </row>
     <row r="365" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A365" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B365" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="C365" s="13" t="s">
         <v>583</v>
-      </c>
-      <c r="C365" s="13" t="s">
-        <v>584</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -14932,13 +14941,13 @@
     </row>
     <row r="366" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A366" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -14966,13 +14975,13 @@
     </row>
     <row r="367" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A367" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -15000,13 +15009,13 @@
     </row>
     <row r="368" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A368" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -15034,13 +15043,13 @@
     </row>
     <row r="369" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A369" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B369" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="C369" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="C369" s="13" t="s">
-        <v>589</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -15068,13 +15077,13 @@
     </row>
     <row r="370" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A370" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B370" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C370" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="C370" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="31"/>
@@ -15102,13 +15111,13 @@
     </row>
     <row r="371" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A371" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B371" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C371" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="C371" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="31"/>
@@ -15136,13 +15145,13 @@
     </row>
     <row r="372" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A372" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="31"/>
@@ -15170,13 +15179,13 @@
     </row>
     <row r="373" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A373" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B373" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="C373" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="C373" s="13" t="s">
-        <v>596</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="31"/>
@@ -15204,13 +15213,13 @@
     </row>
     <row r="374" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A374" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" s="31"/>
@@ -15238,13 +15247,13 @@
     </row>
     <row r="375" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A375" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B375" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="C375" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="C375" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" s="31"/>
@@ -15272,13 +15281,13 @@
     </row>
     <row r="376" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A376" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B376" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C376" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="C376" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="31"/>
@@ -15306,13 +15315,13 @@
     </row>
     <row r="377" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A377" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B377" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C377" s="13" t="s">
         <v>602</v>
-      </c>
-      <c r="C377" s="13" t="s">
-        <v>603</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="31"/>
@@ -15340,13 +15349,13 @@
     </row>
     <row r="378" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A378" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="31"/>
@@ -15374,13 +15383,13 @@
     </row>
     <row r="379" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A379" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B379" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C379" s="13" t="s">
         <v>605</v>
-      </c>
-      <c r="C379" s="13" t="s">
-        <v>606</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="31"/>
@@ -15408,13 +15417,13 @@
     </row>
     <row r="380" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A380" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="31"/>
@@ -15442,13 +15451,13 @@
     </row>
     <row r="381" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A381" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="31"/>
@@ -15476,13 +15485,13 @@
     </row>
     <row r="382" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A382" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B382" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C382" s="13" t="s">
         <v>609</v>
-      </c>
-      <c r="C382" s="13" t="s">
-        <v>610</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="31"/>
@@ -15510,13 +15519,13 @@
     </row>
     <row r="383" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A383" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="31"/>
@@ -15544,13 +15553,13 @@
     </row>
     <row r="384" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A384" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="31"/>
@@ -15578,13 +15587,13 @@
     </row>
     <row r="385" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A385" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="31"/>
@@ -15612,13 +15621,13 @@
     </row>
     <row r="386" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A386" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B386" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="C386" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="C386" s="13" t="s">
-        <v>615</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="31"/>
@@ -15646,13 +15655,13 @@
     </row>
     <row r="387" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A387" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="31"/>
@@ -15680,13 +15689,13 @@
     </row>
     <row r="388" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A388" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B388" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C388" s="13" t="s">
         <v>617</v>
-      </c>
-      <c r="C388" s="13" t="s">
-        <v>618</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="31"/>
@@ -15714,13 +15723,13 @@
     </row>
     <row r="389" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A389" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="31"/>
@@ -15748,13 +15757,13 @@
     </row>
     <row r="390" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A390" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B390" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C390" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="31"/>
@@ -15782,13 +15791,13 @@
     </row>
     <row r="391" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A391" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B391" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="31"/>
@@ -15816,13 +15825,13 @@
     </row>
     <row r="392" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A392" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B392" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="C392" s="13" t="s">
         <v>621</v>
-      </c>
-      <c r="C392" s="13" t="s">
-        <v>622</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="31"/>
@@ -15850,13 +15859,13 @@
     </row>
     <row r="393" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A393" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="31"/>
@@ -15884,13 +15893,13 @@
     </row>
     <row r="394" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A394" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C394" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="31"/>
@@ -15918,13 +15927,13 @@
     </row>
     <row r="395" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A395" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="31"/>
@@ -15952,13 +15961,13 @@
     </row>
     <row r="396" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A396" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B396" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="C396" s="13" t="s">
         <v>626</v>
-      </c>
-      <c r="C396" s="13" t="s">
-        <v>627</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="31"/>
@@ -16040,13 +16049,13 @@
     </row>
     <row r="399" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A399" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B399" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="B399" s="34" t="s">
+      <c r="C399" s="13" t="s">
         <v>629</v>
-      </c>
-      <c r="C399" s="13" t="s">
-        <v>630</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -16072,13 +16081,13 @@
     </row>
     <row r="400" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A400" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B400" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="C400" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="C400" s="13" t="s">
-        <v>632</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -16104,13 +16113,13 @@
     </row>
     <row r="401" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A401" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B401" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -16136,13 +16145,13 @@
     </row>
     <row r="402" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A402" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B402" s="34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C402" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
@@ -16168,13 +16177,13 @@
     </row>
     <row r="403" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A403" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B403" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="C403" s="13" t="s">
         <v>635</v>
-      </c>
-      <c r="C403" s="13" t="s">
-        <v>636</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
@@ -16200,13 +16209,13 @@
     </row>
     <row r="404" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A404" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B404" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
@@ -16232,13 +16241,13 @@
     </row>
     <row r="405" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A405" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B405" s="34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -16264,13 +16273,13 @@
     </row>
     <row r="406" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A406" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B406" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C406" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
@@ -16296,13 +16305,13 @@
     </row>
     <row r="407" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A407" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B407" s="34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C407" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
@@ -16328,13 +16337,13 @@
     </row>
     <row r="408" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A408" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B408" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="C408" s="13" t="s">
         <v>641</v>
-      </c>
-      <c r="C408" s="13" t="s">
-        <v>642</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -16412,10 +16421,10 @@
     </row>
     <row r="411" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A411" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B411" s="14" t="s">
         <v>643</v>
-      </c>
-      <c r="B411" s="14" t="s">
-        <v>644</v>
       </c>
       <c r="C411" s="13"/>
       <c r="F411" s="2"/>
@@ -16442,13 +16451,13 @@
     </row>
     <row r="412" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A412" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -16474,13 +16483,13 @@
     </row>
     <row r="413" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A413" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B413" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="C413" s="13" t="s">
         <v>646</v>
-      </c>
-      <c r="C413" s="13" t="s">
-        <v>647</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
@@ -16506,13 +16515,13 @@
     </row>
     <row r="414" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A414" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B414" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="C414" s="13" t="s">
         <v>648</v>
-      </c>
-      <c r="C414" s="13" t="s">
-        <v>649</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -16538,13 +16547,13 @@
     </row>
     <row r="415" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A415" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -16572,13 +16581,13 @@
     </row>
     <row r="416" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A416" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B416" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="C416" s="13" t="s">
         <v>651</v>
-      </c>
-      <c r="C416" s="13" t="s">
-        <v>652</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -30690,21 +30699,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{07652E37-A5CD-461A-B257-DB07D03B64C5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{49A1BCA8-E8DE-44D5-8217-3837FF243736}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{8BD5E48C-3FF5-4142-90B6-E7A09C28991C}"/>
+      <autoFilter ref="A11:C37" xr:uid="{14C00F94-29E1-4BA9-BF40-451657DF128C}"/>
+    </customSheetView>
+    <customSheetView guid="{62A34CE6-EC82-4829-B253-07E3C059F321}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{F4BB4324-A315-4DA6-8626-9D3B931F111F}"/>
     </customSheetView>
     <customSheetView guid="{639A318C-6F16-4870-B434-4EC51F321CFB}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{4DEDDB56-F4D0-4D6E-B198-42BCA3E3072C}"/>
+      <autoFilter ref="A11:D37" xr:uid="{75F96F57-5DB1-4337-A5BF-21E2098033C1}"/>
     </customSheetView>
-    <customSheetView guid="{62A34CE6-EC82-4829-B253-07E3C059F321}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{07652E37-A5CD-461A-B257-DB07D03B64C5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{1D827FA0-77E5-4919-A273-573835459DAA}"/>
-    </customSheetView>
-    <customSheetView guid="{49A1BCA8-E8DE-44D5-8217-3837FF243736}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{EAA2ED06-DE66-40CE-A794-9DC9E350F980}"/>
+      <autoFilter ref="A293:C332" xr:uid="{BC9601B7-5D5F-4918-8203-774C26E1872D}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31092,10 +31101,12 @@
     <hyperlink ref="B20" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="B22" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="D26" r:id="rId379" xr:uid="{48A9317F-D3EE-4325-B4F1-0D2EC0E8C278}"/>
+    <hyperlink ref="E28" r:id="rId380" xr:uid="{A50AC7E6-D23E-4B65-AE38-806813038E77}"/>
+    <hyperlink ref="E29" r:id="rId381" xr:uid="{D34F2745-F843-4D79-AD0C-BE13C66E6557}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="8" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId380"/>
+  <pageSetup paperSize="8" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId382"/>
 </worksheet>
 </file>
 
@@ -31169,7 +31180,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -31183,7 +31194,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>13</v>
@@ -31191,85 +31202,85 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -31282,42 +31293,42 @@
     </row>
     <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31330,50 +31341,50 @@
     </row>
     <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31382,18 +31393,18 @@
     </row>
     <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31406,10 +31417,10 @@
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31422,42 +31433,42 @@
     </row>
     <row r="52" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31470,26 +31481,26 @@
     </row>
     <row r="59" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31502,66 +31513,66 @@
     </row>
     <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
